--- a/indicadoresGeoTI_11nov2024.xlsx
+++ b/indicadoresGeoTI_11nov2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidosSantosVillela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidosSantosVillela\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E1BABB-B51D-4091-91D5-F578F99770E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755FEAB7-0C5F-4D18-AA0C-B32BDA6B0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A496EFF8-9E6E-474F-98D3-0A9283B2DF9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A496EFF8-9E6E-474F-98D3-0A9283B2DF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Categoria</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Todas as categorias</t>
   </si>
   <si>
-    <t>Todos os status</t>
-  </si>
-  <si>
     <t>Mês</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Todos os meses</t>
   </si>
   <si>
-    <t>Chamados GeoTI por mês (01/01/2024-11/11/2024)</t>
-  </si>
-  <si>
     <t>Chamados GeoTI por mês (01/05/2023-31/12/2023)</t>
   </si>
   <si>
@@ -168,6 +162,9 @@
   </si>
   <si>
     <t>Fornecimento de software</t>
+  </si>
+  <si>
+    <t>Chamados GeoTI por mês (01/01/2024-20/12/2024)</t>
   </si>
 </sst>
 </file>
@@ -232,20 +229,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA09C5B-3557-415C-B6C4-2A94ED9F7E12}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A19:B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,310 +592,156 @@
     <col min="6" max="6" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>26</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
-        <v>120</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>150</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B3:B16)</f>
-        <v>365</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -918,7 +760,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,10 +770,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -946,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,11 +833,11 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B3:B8)</f>
-        <v>365</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9875FC6-C882-4960-9D72-3C93E4074D91}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1021,14 +863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1036,7 +878,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -1044,7 +886,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>16</v>
@@ -1052,7 +894,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>19</v>
@@ -1060,7 +902,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>14</v>
@@ -1068,7 +910,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>18</v>
@@ -1076,7 +918,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -1084,7 +926,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>11</v>
@@ -1092,7 +934,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
@@ -1100,7 +942,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B3:B10)</f>
@@ -1119,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE346C5-07FD-4056-B620-763EF33B8000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,14 +972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1145,7 +987,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -1153,7 +995,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>17</v>
@@ -1161,7 +1003,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -1169,7 +1011,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>32</v>
@@ -1177,7 +1019,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>19</v>
@@ -1185,7 +1027,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>11</v>
@@ -1193,7 +1035,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>24</v>
@@ -1201,7 +1043,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>44</v>
@@ -1209,7 +1051,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>37</v>
@@ -1217,7 +1059,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>46</v>
@@ -1225,25 +1067,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
         <f>SUM(B3:B14)</f>
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1255,6 +1099,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0cdafaaa-e72e-45c3-ad93-46d444a6498d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDE9A1FC67F0994CB39AF8A7B4CA55C3" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="51573fa43a52ffc3dd3533c417482087">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cdafaaa-e72e-45c3-ad93-46d444a6498d" xmlns:ns4="e655a373-7304-43e6-9bb5-646266e4e9cf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="995663f106a7b0b9f246b978fac11930" ns3:_="" ns4:_="">
     <xsd:import namespace="0cdafaaa-e72e-45c3-ad93-46d444a6498d"/>
@@ -1493,24 +1354,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAEBF87-A5DB-4D98-9450-4928CD925DB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e655a373-7304-43e6-9bb5-646266e4e9cf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0cdafaaa-e72e-45c3-ad93-46d444a6498d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0cdafaaa-e72e-45c3-ad93-46d444a6498d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6286F38-9960-4945-AFA4-ED9C439B0DC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE582A06-AD19-461E-A16A-BE17D899B28D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,29 +1396,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6286F38-9960-4945-AFA4-ED9C439B0DC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FAEBF87-A5DB-4D98-9450-4928CD925DB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e655a373-7304-43e6-9bb5-646266e4e9cf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0cdafaaa-e72e-45c3-ad93-46d444a6498d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>